--- a/Rmd_files/Process_main_walkthrough.xlsx
+++ b/Rmd_files/Process_main_walkthrough.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/New York 2015-2020/NYU/Year 4/Data Manuals/Alphabetical Index of Occupations and Industries/Occupational Title Lists - READY/R - Processing data/Rmd_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B8DDE5-D5C9-8B43-940B-81E817D06B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23525BF9-CF6A-C64C-8CF7-8B985205C38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17900" yWindow="-19160" windowWidth="33180" windowHeight="17040" xr2:uid="{AC3EFA4E-7054-6448-BE86-DB6ACEE4154F}"/>
+    <workbookView xWindow="20220" yWindow="-17520" windowWidth="33180" windowHeight="17040" xr2:uid="{AC3EFA4E-7054-6448-BE86-DB6ACEE4154F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="152">
   <si>
     <t>3.2.3</t>
   </si>
@@ -461,6 +461,64 @@
   </si>
   <si>
     <t>7.1.</t>
+  </si>
+  <si>
+    <t>Construct an expanded dataset index_1940, by assigning industry in ind1940_par to titles where ind1940="ind" and ind1940_par!=99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2. </t>
+  </si>
+  <si>
+    <t>Reduce occ-ind combinations</t>
+  </si>
+  <si>
+    <t>"keeping different ind1940 by occ if there are difference in the number of new titles between them"</t>
+  </si>
+  <si>
+    <t>Work only with subindustries</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reduce title</t>
+  </si>
+  <si>
+    <t>Flag/drop repeated titles if no industry, eliminate titles with industry group "NONCLASSIFIABLE"...</t>
+  </si>
+  <si>
+    <t>7.4.1</t>
+  </si>
+  <si>
+    <t>Finding duplicates within category</t>
+  </si>
+  <si>
+    <t>7.4.2</t>
+  </si>
+  <si>
+    <t>7.4.2.1</t>
+  </si>
+  <si>
+    <t>Dataset 1</t>
+  </si>
+  <si>
+    <t>Create:
+- clean_1940.by_subindustry_dataset[dt].by_occ_subind</t>
+  </si>
+  <si>
+    <t>7.4.2.2</t>
+  </si>
+  <si>
+    <t>7.4.2.3</t>
+  </si>
+  <si>
+    <t>Dataset 2</t>
+  </si>
+  <si>
+    <t>Dataset 3</t>
+  </si>
+  <si>
+    <t>7.5.</t>
+  </si>
+  <si>
+    <t>Create dataset with all measures and compare different measures of share of new sectors</t>
   </si>
 </sst>
 </file>
@@ -856,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9F8462-577B-B441-9EF4-6AF3B3E51688}">
   <dimension ref="A2:M132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B92" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1662,8 +1720,80 @@
       <c r="C101" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="114" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="E101" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>134</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="E104" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <v>7.3</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <v>7.4</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>140</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>142</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>143</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E112" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="3:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="E113" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>146</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="H114">
         <v>6</v>
       </c>
@@ -1671,7 +1801,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E115" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="3:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="E116" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="I116" t="s">
         <v>117</v>
       </c>
@@ -1679,7 +1817,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E118" t="s">
+        <v>125</v>
+      </c>
       <c r="I118" t="s">
         <v>118</v>
       </c>
@@ -1687,27 +1836,36 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="E119" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="L119" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L120" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>150</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="L121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I123">
         <v>6.3</v>
       </c>
     </row>
-    <row r="124" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:12" x14ac:dyDescent="0.2">
       <c r="J124" t="s">
         <v>124</v>
       </c>
@@ -1715,17 +1873,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L125" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="8:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:12" ht="51" x14ac:dyDescent="0.2">
       <c r="L126" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I128">
         <v>6.4</v>
       </c>
